--- a/dev/data_quality/erms-template.xlsx
+++ b/dev/data_quality/erms-template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Rprojects\eamena-arches-dev\dev\data_quality\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA180358-BD7A-4A99-B6FD-27B7BD1AC13E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E859E60-4F3E-42D3-B582-BD355DD9B456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{1E0C3C69-C562-4061-B01F-1E26B463065A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1E0C3C69-C562-4061-B01F-1E26B463065A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="208">
   <si>
     <t>ASSESSMENT SUMMARY</t>
   </si>
@@ -690,13 +690,22 @@
   </si>
   <si>
     <t>DEPTH or ELEVATION</t>
+  </si>
+  <si>
+    <t>Disturbance Cause Assignment Assessor Name - Actor</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>Threat Cause Type</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -747,12 +756,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="28">
@@ -1389,23 +1392,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42076D7F-BEF1-41ED-B129-2E241988AEAC}">
-  <dimension ref="A1:E99"/>
+  <dimension ref="A1:F99"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
+      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C83" sqref="C83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="28.88671875" style="31" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34.21875" style="31" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.77734375" style="31" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.21875" style="31" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="36" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="45.33203125" customWidth="1"/>
+    <col min="6" max="6" width="41.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>123</v>
       </c>
@@ -1421,8 +1425,11 @@
       <c r="E1" s="32" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1436,7 +1443,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1453,7 +1460,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1467,7 +1474,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
@@ -1481,7 +1488,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -1492,7 +1499,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
@@ -1509,7 +1516,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>0</v>
       </c>
@@ -1520,7 +1527,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>0</v>
       </c>
@@ -1534,7 +1541,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>1</v>
       </c>
@@ -1551,7 +1558,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>1</v>
       </c>
@@ -1568,7 +1575,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>1</v>
       </c>
@@ -1585,7 +1592,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>1</v>
       </c>
@@ -1602,7 +1609,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>1</v>
       </c>
@@ -1619,7 +1626,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>1</v>
       </c>
@@ -1636,7 +1643,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>1</v>
       </c>
@@ -2331,7 +2338,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="14" t="s">
         <v>4</v>
       </c>
@@ -2345,7 +2352,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="21" t="s">
         <v>5</v>
       </c>
@@ -2359,7 +2366,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="21" t="s">
         <v>5</v>
       </c>
@@ -2376,7 +2383,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="21" t="s">
         <v>5</v>
       </c>
@@ -2393,7 +2400,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="21" t="s">
         <v>5</v>
       </c>
@@ -2407,7 +2414,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="21" t="s">
         <v>5</v>
       </c>
@@ -2421,7 +2428,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="21" t="s">
         <v>5</v>
       </c>
@@ -2435,7 +2442,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="21" t="s">
         <v>5</v>
       </c>
@@ -2449,7 +2456,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="21" t="s">
         <v>5</v>
       </c>
@@ -2460,7 +2467,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="21" t="s">
         <v>5</v>
       </c>
@@ -2474,15 +2481,15 @@
         <v>186</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="21" t="s">
         <v>5</v>
       </c>
       <c r="B75" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C75" s="23" t="s">
-        <v>98</v>
+      <c r="C75" s="31" t="s">
+        <v>205</v>
       </c>
       <c r="D75" t="s">
         <v>187</v>
@@ -2490,8 +2497,11 @@
       <c r="E75" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F75" s="23" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="21" t="s">
         <v>5</v>
       </c>
@@ -2505,7 +2515,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="21" t="s">
         <v>5</v>
       </c>
@@ -2519,7 +2529,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="21" t="s">
         <v>5</v>
       </c>
@@ -2536,15 +2546,15 @@
         <v>147</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="21" t="s">
         <v>5</v>
       </c>
       <c r="B79" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C79" s="8" t="s">
-        <v>102</v>
+      <c r="C79" s="31" t="s">
+        <v>207</v>
       </c>
       <c r="D79" t="s">
         <v>189</v>
@@ -2552,8 +2562,11 @@
       <c r="E79" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F79" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="21" t="s">
         <v>5</v>
       </c>

--- a/dev/data_quality/erms-template.xlsx
+++ b/dev/data_quality/erms-template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Rprojects\eamena-arches-dev\dev\data_quality\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E859E60-4F3E-42D3-B582-BD355DD9B456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9AB1774-5B5E-41CF-8361-F91983B93647}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1E0C3C69-C562-4061-B01F-1E26B463065A}"/>
   </bookViews>
@@ -43,7 +43,16 @@
   <authors>
     <author>tc={CDFACE79-D1E5-4FFE-BEA3-A5667AB623EF}</author>
     <author>tc={44FBD45B-D55F-48E4-A961-45DAC028A895}</author>
+    <author>tc={323D2BB1-5D76-4207-A560-D0CB6B0E6B34}</author>
+    <author>tc={400E9F18-77A0-4450-ABCF-5F815573CE72}</author>
+    <author>tc={63CF54B7-00A3-4458-9493-8E2D9C0E484D}</author>
+    <author>tc={5594FF8B-47FA-4FAD-AC29-0D90A0842C92}</author>
     <author>tc={9316DFD1-CDFA-4A68-9C79-645F056CD881}</author>
+    <author>tc={16194538-CB3E-49C2-9323-5876F882DD9F}</author>
+    <author>tc={04AAB84D-D01C-4F95-B318-B8B7A1D99882}</author>
+    <author>tc={94E8E0F2-48BF-4322-ADC8-B6E8AA8F0879}</author>
+    <author>tc={C9986EEB-7292-4796-A76C-FDF55421398C}</author>
+    <author>tc={9405061E-D2A3-46CD-8C4F-993C42FAC7B3}</author>
   </authors>
   <commentList>
     <comment ref="D1" authorId="0" shapeId="0" xr:uid="{CDFACE79-D1E5-4FFE-BEA3-A5667AB623EF}">
@@ -62,7 +71,39 @@
     Only the fields having the word "Yes" are considered to be part of the ERMS</t>
       </text>
     </comment>
-    <comment ref="B65" authorId="2" shapeId="0" xr:uid="{9316DFD1-CDFA-4A68-9C79-645F056CD881}">
+    <comment ref="C16" authorId="2" shapeId="0" xr:uid="{323D2BB1-5D76-4207-A560-D0CB6B0E6B34}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    A trailing space that need to be removed first in the RM, then here</t>
+      </text>
+    </comment>
+    <comment ref="C33" authorId="3" shapeId="0" xr:uid="{400E9F18-77A0-4450-ABCF-5F815573CE72}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    A trailing space that need to be removed first in the RM, then here</t>
+      </text>
+    </comment>
+    <comment ref="C47" authorId="4" shapeId="0" xr:uid="{63CF54B7-00A3-4458-9493-8E2D9C0E484D}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    'to' in lowercase</t>
+      </text>
+    </comment>
+    <comment ref="C64" authorId="5" shapeId="0" xr:uid="{5594FF8B-47FA-4FAD-AC29-0D90A0842C92}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    A trailing space that need to be removed first in the RM, then here</t>
+      </text>
+    </comment>
+    <comment ref="B65" authorId="6" shapeId="0" xr:uid="{9316DFD1-CDFA-4A68-9C79-645F056CD881}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -70,12 +111,52 @@
     Level 1 is same as level2</t>
       </text>
     </comment>
+    <comment ref="C69" authorId="7" shapeId="0" xr:uid="{16194538-CB3E-49C2-9323-5876F882DD9F}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    A trailing space that need to be removed first in the RM, then here</t>
+      </text>
+    </comment>
+    <comment ref="C70" authorId="8" shapeId="0" xr:uid="{04AAB84D-D01C-4F95-B318-B8B7A1D99882}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    A trailing space that need to be removed first in the RM, then here</t>
+      </text>
+    </comment>
+    <comment ref="C72" authorId="9" shapeId="0" xr:uid="{94E8E0F2-48BF-4322-ADC8-B6E8AA8F0879}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    A trailing space that need to be removed first in the RM, then here</t>
+      </text>
+    </comment>
+    <comment ref="C74" authorId="10" shapeId="0" xr:uid="{C9986EEB-7292-4796-A76C-FDF55421398C}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    A trailing space that need to be removed first in the RM, then here</t>
+      </text>
+    </comment>
+    <comment ref="C80" authorId="11" shapeId="0" xr:uid="{9405061E-D2A3-46CD-8C4F-993C42FAC7B3}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    A trailing space that need to be removed first in the RM, then here</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="236">
   <si>
     <t>ASSESSMENT SUMMARY</t>
   </si>
@@ -164,15 +245,9 @@
     <t>Assessment Activity Date</t>
   </si>
   <si>
-    <t>GE Assessment(Yes/No)</t>
-  </si>
-  <si>
     <t>GE Imagery Acquisition Date</t>
   </si>
   <si>
-    <t>Information Resource Used</t>
-  </si>
-  <si>
     <t>Information Resource Acquisition Date</t>
   </si>
   <si>
@@ -194,9 +269,6 @@
     <t>Heritage Place Function</t>
   </si>
   <si>
-    <t>Heritage Place Function Certainty</t>
-  </si>
-  <si>
     <t>Designation</t>
   </si>
   <si>
@@ -212,15 +284,9 @@
     <t>Geometry Qualifier</t>
   </si>
   <si>
-    <t>Site Location Certainty</t>
-  </si>
-  <si>
     <t>Geometry Extent Certainty</t>
   </si>
   <si>
-    <t>Site Overall Shape Type</t>
-  </si>
-  <si>
     <t>Grid ID</t>
   </si>
   <si>
@@ -239,15 +305,6 @@
     <t>Address Type</t>
   </si>
   <si>
-    <t>Administrative Subdivision</t>
-  </si>
-  <si>
-    <t>Administrative Subdivision Type</t>
-  </si>
-  <si>
-    <t>Overall Archaeological Certainty Value</t>
-  </si>
-  <si>
     <t>Overall Site Morphology Type</t>
   </si>
   <si>
@@ -257,21 +314,9 @@
     <t>Cultural Period Certainty</t>
   </si>
   <si>
-    <t>Cultural Subperiod Type</t>
-  </si>
-  <si>
-    <t>Cultural Subperiod Certainty</t>
-  </si>
-  <si>
     <t>Date Inference Making Actor</t>
   </si>
   <si>
-    <t>Archaeological Date From (cal)</t>
-  </si>
-  <si>
-    <t>Archaeological Date to (cal)</t>
-  </si>
-  <si>
     <t>BP Date From</t>
   </si>
   <si>
@@ -287,9 +332,6 @@
     <t>SH Date From</t>
   </si>
   <si>
-    <t>SH Date To</t>
-  </si>
-  <si>
     <t>Site Feature Form Type</t>
   </si>
   <si>
@@ -305,21 +347,9 @@
     <t>Site Feature Number Type</t>
   </si>
   <si>
-    <t xml:space="preserve">Site Feature Interpretation Type </t>
-  </si>
-  <si>
-    <t>Site Feature Interpretation Number</t>
-  </si>
-  <si>
     <t>Site Feature Interpretation Certainty</t>
   </si>
   <si>
-    <t>Built Component Related Resource</t>
-  </si>
-  <si>
-    <t>HP Related Resource</t>
-  </si>
-  <si>
     <t>Material Class</t>
   </si>
   <si>
@@ -338,39 +368,18 @@
     <t>Dimension Type</t>
   </si>
   <si>
-    <t>Measurement Source Type</t>
-  </si>
-  <si>
-    <t>Related Geoarch/Palaeo</t>
-  </si>
-  <si>
-    <t>Overall Condition State</t>
-  </si>
-  <si>
     <t>Damage Extent Type</t>
   </si>
   <si>
     <t>Disturbance Cause Category Type</t>
   </si>
   <si>
-    <t>Disturbance Cause Type</t>
-  </si>
-  <si>
-    <t>Disturbance Cause Certainty</t>
-  </si>
-  <si>
     <t>Disturbance Date From</t>
   </si>
   <si>
-    <t>Disturbance Date To</t>
-  </si>
-  <si>
     <t>Disturbance Date Occurred Before</t>
   </si>
   <si>
-    <t>Disturbance Date Occurred On</t>
-  </si>
-  <si>
     <t>Disturbance Cause Assignment Assessor Name</t>
   </si>
   <si>
@@ -386,12 +395,6 @@
     <t>Threat Type</t>
   </si>
   <si>
-    <t>Threat Probability</t>
-  </si>
-  <si>
-    <t>Threat Inference Making Assessor Name</t>
-  </si>
-  <si>
     <t>Intervention Activity Type</t>
   </si>
   <si>
@@ -401,9 +404,6 @@
     <t>Priority Type</t>
   </si>
   <si>
-    <t>Related Detailed Condition Resource</t>
-  </si>
-  <si>
     <t>Topography Type</t>
   </si>
   <si>
@@ -428,15 +428,6 @@
     <t>Wave Climate</t>
   </si>
   <si>
-    <t>Tidal Energy</t>
-  </si>
-  <si>
-    <t>Minimum Depth/Max Elevation(m)</t>
-  </si>
-  <si>
-    <t>Maximum Depth/Min Elevation(m)</t>
-  </si>
-  <si>
     <t>Datum Type</t>
   </si>
   <si>
@@ -677,12 +668,6 @@
     <t>34cfea2b-c2c0-11ea-9026-02e7594ce0a0</t>
   </si>
   <si>
-    <t>34cfea3f-c2c0-11ea-9026-02e7594ce0a0</t>
-  </si>
-  <si>
-    <t>34cfea38-c2c0-11ea-9026-02e7594ce0a0</t>
-  </si>
-  <si>
     <t>34cfea9b-c2c0-11ea-9026-02e7594ce0a0</t>
   </si>
   <si>
@@ -699,13 +684,193 @@
   </si>
   <si>
     <t>Threat Cause Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heritage Place Function Certainty </t>
+  </si>
+  <si>
+    <t>34cfea7d-c2c0-11ea-9026-02e7594ce0a0</t>
+  </si>
+  <si>
+    <t>Google Earth Assessment</t>
+  </si>
+  <si>
+    <t>bcd3a8ae-0404-11eb-a11c-0a5a9a4f6ef7</t>
+  </si>
+  <si>
+    <t>Information Resource</t>
+  </si>
+  <si>
+    <t>34cfea34-c2c0-11ea-9026-02e7594ce0a0</t>
+  </si>
+  <si>
+    <t>5348cf67-c2c5-11ea-9026-02e7594ce0a0</t>
+  </si>
+  <si>
+    <t>5348cf6b-c2c5-11ea-9026-02e7594ce0a0</t>
+  </si>
+  <si>
+    <t>Location Certainty</t>
+  </si>
+  <si>
+    <t>Overall Site Shape Type</t>
+  </si>
+  <si>
+    <t>34cfea69-c2c0-11ea-9026-02e7594ce0a0</t>
+  </si>
+  <si>
+    <t>34cfea78-c2c0-11ea-9026-02e7594ce0a0</t>
+  </si>
+  <si>
+    <t>34cfea87-c2c0-11ea-9026-02e7594ce0a0</t>
+  </si>
+  <si>
+    <t>Administrative Division Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Administrative Division </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Overall Archaeological Certainty Value </t>
+  </si>
+  <si>
+    <t>34cfea51-c2c0-11ea-9026-02e7594ce0a0</t>
+  </si>
+  <si>
+    <t>38cff73c-c77b-11ea-a292-02e7594ce0a0</t>
+  </si>
+  <si>
+    <t>38cff73a-c77b-11ea-a292-02e7594ce0a0</t>
+  </si>
+  <si>
+    <t>Cultural Sub-period Type</t>
+  </si>
+  <si>
+    <t>Cultural Sub-period Certainty</t>
+  </si>
+  <si>
+    <t>Archaeological From Date</t>
+  </si>
+  <si>
+    <t>34cfea83-c2c0-11ea-9026-02e7594ce0a0</t>
+  </si>
+  <si>
+    <t>34cfea6c-c2c0-11ea-9026-02e7594ce0a0</t>
+  </si>
+  <si>
+    <t>Archaeological To Date</t>
+  </si>
+  <si>
+    <t>SH Date to</t>
+  </si>
+  <si>
+    <t>97a2c1fc-cb86-11ea-a292-02e7594ce0a0</t>
+  </si>
+  <si>
+    <t>34cfea58-c2c0-11ea-9026-02e7594ce0a0</t>
+  </si>
+  <si>
+    <t>Site Feature Interpretation Type</t>
+  </si>
+  <si>
+    <t>Site Feature Interpretation Number Type</t>
+  </si>
+  <si>
+    <t>34cfea62-c2c0-11ea-9026-02e7594ce0a0</t>
+  </si>
+  <si>
+    <t>Built Component</t>
+  </si>
+  <si>
+    <t>3d218500-c385-11ea-9026-02e7594ce0a0</t>
+  </si>
+  <si>
+    <t>Heritage Place Resource Instance</t>
+  </si>
+  <si>
+    <t>Related ressources</t>
+  </si>
+  <si>
+    <t>34cfea7c-c2c0-11ea-9026-02e7594ce0a0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Measurement Source Type </t>
+  </si>
+  <si>
+    <t>34cfe9ec-c2c0-11ea-9026-02e7594ce0a0</t>
+  </si>
+  <si>
+    <t>Related Geoarchaeology/Palaeolandscape</t>
+  </si>
+  <si>
+    <t>Overall Condition State Type</t>
+  </si>
+  <si>
+    <t>34cfe9f5-c2c0-11ea-9026-02e7594ce0a0</t>
+  </si>
+  <si>
+    <t>34cfea79-c2c0-11ea-9026-02e7594ce0a0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disturbance Cause Type </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disturbance Cause Certainty </t>
+  </si>
+  <si>
+    <t>34cfea3d-c2c0-11ea-9026-02e7594ce0a0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disturbance Date To </t>
+  </si>
+  <si>
+    <t>There are two fields named 'Disturbance Date To ' in the RM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disturbance Date Occurred On </t>
+  </si>
+  <si>
+    <t>There are two fields named 'Disturbance Date On ' in the RM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Threat Probability </t>
+  </si>
+  <si>
+    <t>Threat Inference Making Assessor Name - Actor</t>
+  </si>
+  <si>
+    <t>34cfea75-c2c0-11ea-9026-02e7594ce0a0</t>
+  </si>
+  <si>
+    <t>Detailed Condition Assessments</t>
+  </si>
+  <si>
+    <t>Tidal Range</t>
+  </si>
+  <si>
+    <t>34cfea9c-c2c0-11ea-9026-02e7594ce0a0</t>
+  </si>
+  <si>
+    <t>Previously named 'Tidal Energy'</t>
+  </si>
+  <si>
+    <t>34cfea42-c2c0-11ea-9026-02e7594ce0a0</t>
+  </si>
+  <si>
+    <t>34cfea40-c2c0-11ea-9026-02e7594ce0a0</t>
+  </si>
+  <si>
+    <t>Maximum Depth/Min Elevation</t>
+  </si>
+  <si>
+    <t>Minimum Depth/Max Elevation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -753,6 +918,18 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF1F2328"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1384,8 +1561,35 @@
   <threadedComment ref="E1" dT="2023-10-11T14:40:33.45" personId="{74C007A8-CA36-4AA9-9FEC-D76DE284ACA2}" id="{44FBD45B-D55F-48E4-A961-45DAC028A895}">
     <text>Only the fields having the word "Yes" are considered to be part of the ERMS</text>
   </threadedComment>
+  <threadedComment ref="C16" dT="2023-10-31T17:23:29.89" personId="{74C007A8-CA36-4AA9-9FEC-D76DE284ACA2}" id="{323D2BB1-5D76-4207-A560-D0CB6B0E6B34}">
+    <text>A trailing space that need to be removed first in the RM, then here</text>
+  </threadedComment>
+  <threadedComment ref="C33" dT="2023-10-31T17:38:35.77" personId="{74C007A8-CA36-4AA9-9FEC-D76DE284ACA2}" id="{400E9F18-77A0-4450-ABCF-5F815573CE72}">
+    <text>A trailing space that need to be removed first in the RM, then here</text>
+  </threadedComment>
+  <threadedComment ref="C47" dT="2023-10-31T18:01:06.67" personId="{74C007A8-CA36-4AA9-9FEC-D76DE284ACA2}" id="{63CF54B7-00A3-4458-9493-8E2D9C0E484D}">
+    <text>'to' in lowercase</text>
+  </threadedComment>
+  <threadedComment ref="C64" dT="2023-10-31T18:09:09.67" personId="{74C007A8-CA36-4AA9-9FEC-D76DE284ACA2}" id="{5594FF8B-47FA-4FAD-AC29-0D90A0842C92}">
+    <text>A trailing space that need to be removed first in the RM, then here</text>
+  </threadedComment>
   <threadedComment ref="B65" dT="2023-10-02T10:02:40.03" personId="{74C007A8-CA36-4AA9-9FEC-D76DE284ACA2}" id="{9316DFD1-CDFA-4A68-9C79-645F056CD881}">
     <text>Level 1 is same as level2</text>
+  </threadedComment>
+  <threadedComment ref="C69" dT="2023-10-31T18:14:19.54" personId="{74C007A8-CA36-4AA9-9FEC-D76DE284ACA2}" id="{16194538-CB3E-49C2-9323-5876F882DD9F}">
+    <text>A trailing space that need to be removed first in the RM, then here</text>
+  </threadedComment>
+  <threadedComment ref="C70" dT="2023-10-31T18:14:41.85" personId="{74C007A8-CA36-4AA9-9FEC-D76DE284ACA2}" id="{04AAB84D-D01C-4F95-B318-B8B7A1D99882}">
+    <text>A trailing space that need to be removed first in the RM, then here</text>
+  </threadedComment>
+  <threadedComment ref="C72" dT="2023-10-31T18:16:49.34" personId="{74C007A8-CA36-4AA9-9FEC-D76DE284ACA2}" id="{94E8E0F2-48BF-4322-ADC8-B6E8AA8F0879}">
+    <text>A trailing space that need to be removed first in the RM, then here</text>
+  </threadedComment>
+  <threadedComment ref="C74" dT="2023-10-31T18:18:43.01" personId="{74C007A8-CA36-4AA9-9FEC-D76DE284ACA2}" id="{C9986EEB-7292-4796-A76C-FDF55421398C}">
+    <text>A trailing space that need to be removed first in the RM, then here</text>
+  </threadedComment>
+  <threadedComment ref="C80" dT="2023-10-31T18:20:22.47" personId="{74C007A8-CA36-4AA9-9FEC-D76DE284ACA2}" id="{9405061E-D2A3-46CD-8C4F-993C42FAC7B3}">
+    <text>A trailing space that need to be removed first in the RM, then here</text>
   </threadedComment>
 </ThreadedComments>
 </file>
@@ -1396,7 +1600,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C83" sqref="C83"/>
+      <selection pane="bottomLeft" activeCell="D88" sqref="D88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1411,22 +1615,22 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>123</v>
+        <v>93</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="E1" s="32" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>206</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -1440,7 +1644,7 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>129</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -1454,10 +1658,10 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="E3" t="s">
-        <v>138</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -1471,7 +1675,7 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>128</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -1485,7 +1689,7 @@
         <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>131</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -1496,7 +1700,10 @@
         <v>8</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>29</v>
+        <v>178</v>
+      </c>
+      <c r="D6" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -1507,13 +1714,13 @@
         <v>8</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>132</v>
+        <v>102</v>
       </c>
       <c r="E7" t="s">
-        <v>139</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -1524,7 +1731,10 @@
         <v>8</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>31</v>
+        <v>180</v>
+      </c>
+      <c r="D8" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -1535,10 +1745,10 @@
         <v>8</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>133</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -1549,13 +1759,13 @@
         <v>9</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>134</v>
+        <v>104</v>
       </c>
       <c r="E10" t="s">
-        <v>140</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -1566,13 +1776,13 @@
         <v>9</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="E11" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -1583,13 +1793,13 @@
         <v>1</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D12" t="s">
-        <v>136</v>
+        <v>106</v>
       </c>
       <c r="E12" t="s">
-        <v>142</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -1600,13 +1810,13 @@
         <v>10</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D13" t="s">
-        <v>148</v>
+        <v>118</v>
       </c>
       <c r="E13" t="s">
-        <v>142</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -1617,13 +1827,13 @@
         <v>10</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D14" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="E14" t="s">
-        <v>142</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -1634,13 +1844,13 @@
         <v>11</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D15" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="E15" t="s">
-        <v>143</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -1651,10 +1861,13 @@
         <v>11</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>39</v>
+        <v>176</v>
+      </c>
+      <c r="D16" t="s">
+        <v>177</v>
       </c>
       <c r="E16" t="s">
-        <v>144</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -1665,13 +1878,13 @@
         <v>12</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D17" t="s">
-        <v>151</v>
+        <v>121</v>
       </c>
       <c r="E17" t="s">
-        <v>142</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -1682,13 +1895,13 @@
         <v>12</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D18" t="s">
-        <v>152</v>
+        <v>122</v>
       </c>
       <c r="E18" t="s">
-        <v>142</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -1699,13 +1912,13 @@
         <v>12</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D19" t="s">
-        <v>153</v>
+        <v>123</v>
       </c>
       <c r="E19" t="s">
-        <v>142</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -1716,10 +1929,13 @@
         <v>2</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
+      </c>
+      <c r="D20" t="s">
+        <v>182</v>
       </c>
       <c r="E20" t="s">
-        <v>138</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -1730,10 +1946,10 @@
         <v>2</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D21" t="s">
-        <v>154</v>
+        <v>124</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -1744,7 +1960,10 @@
         <v>2</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>45</v>
+        <v>184</v>
+      </c>
+      <c r="D22" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -1755,13 +1974,13 @@
         <v>2</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D23" t="s">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c r="E23" t="s">
-        <v>142</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -1772,7 +1991,10 @@
         <v>3</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>47</v>
+        <v>185</v>
+      </c>
+      <c r="D24" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -1783,13 +2005,13 @@
         <v>3</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D25" t="s">
-        <v>156</v>
+        <v>126</v>
       </c>
       <c r="E25" t="s">
-        <v>138</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -1800,10 +2022,10 @@
         <v>3</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D26" t="s">
-        <v>157</v>
+        <v>127</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -1814,13 +2036,13 @@
         <v>3</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D27" t="s">
-        <v>158</v>
+        <v>128</v>
       </c>
       <c r="E27" t="s">
-        <v>142</v>
+        <v>112</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -1831,13 +2053,13 @@
         <v>3</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D28" t="s">
-        <v>159</v>
+        <v>129</v>
       </c>
       <c r="E28" t="s">
-        <v>142</v>
+        <v>112</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -1848,10 +2070,10 @@
         <v>13</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D29" t="s">
-        <v>160</v>
+        <v>130</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -1862,10 +2084,10 @@
         <v>13</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D30" t="s">
-        <v>161</v>
+        <v>131</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -1876,7 +2098,10 @@
         <v>14</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>54</v>
+        <v>190</v>
+      </c>
+      <c r="D31" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -1887,7 +2112,10 @@
         <v>14</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>55</v>
+        <v>189</v>
+      </c>
+      <c r="D32" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -1898,10 +2126,13 @@
         <v>4</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>56</v>
+        <v>191</v>
+      </c>
+      <c r="D33" t="s">
+        <v>192</v>
       </c>
       <c r="E33" t="s">
-        <v>138</v>
+        <v>108</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -1912,13 +2143,13 @@
         <v>4</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="D34" t="s">
-        <v>162</v>
+        <v>132</v>
       </c>
       <c r="E34" t="s">
-        <v>138</v>
+        <v>108</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -1929,10 +2160,10 @@
         <v>15</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D35" t="s">
-        <v>163</v>
+        <v>133</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -1943,13 +2174,13 @@
         <v>15</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D36" t="s">
-        <v>164</v>
+        <v>134</v>
       </c>
       <c r="E36" t="s">
-        <v>138</v>
+        <v>108</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -1960,10 +2191,13 @@
         <v>15</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>60</v>
+        <v>195</v>
+      </c>
+      <c r="D37" t="s">
+        <v>193</v>
       </c>
       <c r="E37" t="s">
-        <v>142</v>
+        <v>112</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
@@ -1974,10 +2208,13 @@
         <v>15</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>61</v>
+        <v>196</v>
+      </c>
+      <c r="D38" t="s">
+        <v>194</v>
       </c>
       <c r="E38" t="s">
-        <v>142</v>
+        <v>112</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
@@ -1988,10 +2225,10 @@
         <v>15</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="D39" t="s">
-        <v>165</v>
+        <v>135</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
@@ -2002,7 +2239,10 @@
         <v>16</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>63</v>
+        <v>197</v>
+      </c>
+      <c r="D40" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
@@ -2013,7 +2253,10 @@
         <v>16</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>64</v>
+        <v>200</v>
+      </c>
+      <c r="D41" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
@@ -2024,10 +2267,10 @@
         <v>16</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="D42" t="s">
-        <v>166</v>
+        <v>136</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
@@ -2038,10 +2281,10 @@
         <v>16</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="D43" t="s">
-        <v>167</v>
+        <v>137</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
@@ -2052,10 +2295,10 @@
         <v>16</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="D44" t="s">
-        <v>168</v>
+        <v>138</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
@@ -2066,10 +2309,10 @@
         <v>16</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="D45" t="s">
-        <v>169</v>
+        <v>139</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
@@ -2080,10 +2323,10 @@
         <v>16</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D46" t="s">
-        <v>170</v>
+        <v>140</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
@@ -2094,7 +2337,10 @@
         <v>16</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>70</v>
+        <v>201</v>
+      </c>
+      <c r="D47" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
@@ -2102,148 +2348,166 @@
         <v>4</v>
       </c>
       <c r="B48" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C48" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D48" t="s">
+        <v>141</v>
+      </c>
+      <c r="E48" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C49" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D49" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C50" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="D50" t="s">
+        <v>143</v>
+      </c>
+      <c r="E50" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C51" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D51" t="s">
+        <v>144</v>
+      </c>
+      <c r="E51" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C52" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D52" t="s">
+        <v>145</v>
+      </c>
+      <c r="E52" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C53" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="D53" t="s">
         <v>203</v>
       </c>
-      <c r="C48" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="D48" t="s">
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B54" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="E48" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="C49" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="D49" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="C50" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="D50" t="s">
-        <v>173</v>
-      </c>
-      <c r="E50" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="C51" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="D51" t="s">
-        <v>174</v>
-      </c>
-      <c r="E51" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="C52" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="D52" t="s">
-        <v>175</v>
-      </c>
-      <c r="E52" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B53" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="C53" s="16" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B54" s="7" t="s">
-        <v>203</v>
-      </c>
       <c r="C54" s="16" t="s">
-        <v>77</v>
+        <v>205</v>
+      </c>
+      <c r="D54" t="s">
+        <v>206</v>
       </c>
       <c r="E54" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="14" t="s">
         <v>4</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="D55" t="s">
-        <v>176</v>
+        <v>146</v>
       </c>
       <c r="E55" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="14" t="s">
         <v>4</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+        <v>207</v>
+      </c>
+      <c r="D56" t="s">
+        <v>208</v>
+      </c>
+      <c r="F56" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="14" t="s">
         <v>4</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+        <v>209</v>
+      </c>
+      <c r="D57" t="s">
+        <v>208</v>
+      </c>
+      <c r="F57" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="14" t="s">
         <v>4</v>
       </c>
@@ -2251,13 +2515,13 @@
         <v>17</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="D58" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="14" t="s">
         <v>4</v>
       </c>
@@ -2265,13 +2529,13 @@
         <v>17</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="D59" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="14" t="s">
         <v>4</v>
       </c>
@@ -2279,13 +2543,13 @@
         <v>17</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="D60" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="14" t="s">
         <v>4</v>
       </c>
@@ -2293,13 +2557,13 @@
         <v>18</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="D61" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="14" t="s">
         <v>4</v>
       </c>
@@ -2307,13 +2571,13 @@
         <v>18</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="D62" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="14" t="s">
         <v>4</v>
       </c>
@@ -2321,13 +2585,13 @@
         <v>18</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="D63" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="14" t="s">
         <v>4</v>
       </c>
@@ -2335,7 +2599,10 @@
         <v>18</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>87</v>
+        <v>212</v>
+      </c>
+      <c r="D64" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -2346,10 +2613,13 @@
         <v>4</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>88</v>
+        <v>214</v>
+      </c>
+      <c r="D65" t="s">
+        <v>213</v>
       </c>
       <c r="E65" t="s">
-        <v>142</v>
+        <v>112</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
@@ -2360,10 +2630,13 @@
         <v>5</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>89</v>
+        <v>215</v>
+      </c>
+      <c r="D66" t="s">
+        <v>216</v>
       </c>
       <c r="E66" t="s">
-        <v>146</v>
+        <v>116</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -2374,13 +2647,13 @@
         <v>5</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="D67" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="E67" t="s">
-        <v>142</v>
+        <v>112</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -2391,13 +2664,13 @@
         <v>19</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="D68" t="s">
-        <v>183</v>
+        <v>153</v>
       </c>
       <c r="E68" t="s">
-        <v>146</v>
+        <v>116</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
@@ -2408,10 +2681,13 @@
         <v>19</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>92</v>
+        <v>218</v>
+      </c>
+      <c r="D69" t="s">
+        <v>217</v>
       </c>
       <c r="E69" t="s">
-        <v>146</v>
+        <v>116</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -2422,10 +2698,13 @@
         <v>19</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>93</v>
+        <v>219</v>
+      </c>
+      <c r="D70" t="s">
+        <v>220</v>
       </c>
       <c r="E70" t="s">
-        <v>146</v>
+        <v>116</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
@@ -2436,10 +2715,10 @@
         <v>19</v>
       </c>
       <c r="C71" s="23" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="D71" t="s">
-        <v>184</v>
+        <v>154</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
@@ -2450,10 +2729,13 @@
         <v>19</v>
       </c>
       <c r="C72" s="23" t="s">
-        <v>95</v>
+        <v>221</v>
       </c>
       <c r="D72" t="s">
-        <v>185</v>
+        <v>155</v>
+      </c>
+      <c r="F72" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
@@ -2464,7 +2746,10 @@
         <v>19</v>
       </c>
       <c r="C73" s="23" t="s">
-        <v>96</v>
+        <v>73</v>
+      </c>
+      <c r="F73" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
@@ -2475,10 +2760,10 @@
         <v>19</v>
       </c>
       <c r="C74" s="23" t="s">
-        <v>97</v>
+        <v>223</v>
       </c>
       <c r="D74" t="s">
-        <v>186</v>
+        <v>156</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
@@ -2489,16 +2774,16 @@
         <v>19</v>
       </c>
       <c r="C75" s="31" t="s">
-        <v>205</v>
+        <v>173</v>
       </c>
       <c r="D75" t="s">
-        <v>187</v>
+        <v>157</v>
       </c>
       <c r="E75" t="s">
-        <v>142</v>
+        <v>112</v>
       </c>
       <c r="F75" s="23" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
@@ -2509,10 +2794,13 @@
         <v>19</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>99</v>
+        <v>75</v>
+      </c>
+      <c r="D76" t="s">
+        <v>227</v>
       </c>
       <c r="E76" t="s">
-        <v>142</v>
+        <v>112</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
@@ -2523,10 +2811,13 @@
         <v>19</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>100</v>
+        <v>76</v>
+      </c>
+      <c r="D77" t="s">
+        <v>159</v>
       </c>
       <c r="E77" t="s">
-        <v>142</v>
+        <v>112</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
@@ -2537,13 +2828,13 @@
         <v>20</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="D78" t="s">
-        <v>188</v>
+        <v>158</v>
       </c>
       <c r="E78" t="s">
-        <v>147</v>
+        <v>117</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
@@ -2554,16 +2845,16 @@
         <v>20</v>
       </c>
       <c r="C79" s="31" t="s">
-        <v>207</v>
+        <v>175</v>
       </c>
       <c r="D79" t="s">
-        <v>189</v>
+        <v>159</v>
       </c>
       <c r="E79" t="s">
-        <v>138</v>
+        <v>108</v>
       </c>
       <c r="F79" s="8" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
@@ -2574,13 +2865,13 @@
         <v>20</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>103</v>
+        <v>225</v>
       </c>
       <c r="D80" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="21" t="s">
         <v>5</v>
       </c>
@@ -2588,10 +2879,13 @@
         <v>20</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+        <v>226</v>
+      </c>
+      <c r="D81" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="21" t="s">
         <v>5</v>
       </c>
@@ -2599,10 +2893,10 @@
         <v>21</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="21" t="s">
         <v>5</v>
       </c>
@@ -2610,10 +2904,10 @@
         <v>21</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="21" t="s">
         <v>5</v>
       </c>
@@ -2621,13 +2915,13 @@
         <v>21</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="D84" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="21" t="s">
         <v>5</v>
       </c>
@@ -2635,16 +2929,19 @@
         <v>5</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>108</v>
+        <v>228</v>
       </c>
       <c r="D85" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="E85" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+      <c r="F85" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="26" t="s">
         <v>6</v>
       </c>
@@ -2652,13 +2949,13 @@
         <v>6</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="D86" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="26" t="s">
         <v>6</v>
       </c>
@@ -2666,10 +2963,10 @@
         <v>22</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="26" t="s">
         <v>6</v>
       </c>
@@ -2677,13 +2974,13 @@
         <v>22</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="D88" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="26" t="s">
         <v>6</v>
       </c>
@@ -2691,13 +2988,13 @@
         <v>23</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="D89" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="26" t="s">
         <v>6</v>
       </c>
@@ -2705,13 +3002,13 @@
         <v>23</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>113</v>
+        <v>86</v>
       </c>
       <c r="D90" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="26" t="s">
         <v>6</v>
       </c>
@@ -2719,13 +3016,13 @@
         <v>6</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="D91" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="26" t="s">
         <v>6</v>
       </c>
@@ -2733,13 +3030,13 @@
         <v>24</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="D92" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="26" t="s">
         <v>6</v>
       </c>
@@ -2747,13 +3044,13 @@
         <v>24</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="D93" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="26" t="s">
         <v>6</v>
       </c>
@@ -2761,35 +3058,41 @@
         <v>24</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>117</v>
+        <v>229</v>
       </c>
       <c r="D94" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+        <v>230</v>
+      </c>
+      <c r="F94" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="26" t="s">
         <v>6</v>
       </c>
       <c r="B95" s="30" t="s">
-        <v>204</v>
+        <v>172</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>118</v>
+        <v>235</v>
       </c>
       <c r="D95" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="26" t="s">
         <v>6</v>
       </c>
       <c r="B96" s="30" t="s">
-        <v>204</v>
+        <v>172</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>119</v>
+        <v>234</v>
+      </c>
+      <c r="D96" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
@@ -2797,10 +3100,10 @@
         <v>6</v>
       </c>
       <c r="B97" s="30" t="s">
-        <v>204</v>
+        <v>172</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
@@ -2808,10 +3111,10 @@
         <v>6</v>
       </c>
       <c r="B98" s="30" t="s">
-        <v>204</v>
+        <v>172</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
@@ -2822,14 +3125,15 @@
         <v>7</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
       <c r="D99" t="s">
-        <v>202</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:F1" xr:uid="{42076D7F-BEF1-41ED-B129-2E241988AEAC}"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>

--- a/dev/data_quality/erms-template.xlsx
+++ b/dev/data_quality/erms-template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Rprojects\eamena-arches-dev\dev\data_quality\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9AB1774-5B5E-41CF-8361-F91983B93647}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2842F5BE-52CF-45A6-9101-E0EEABF8CD96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1E0C3C69-C562-4061-B01F-1E26B463065A}"/>
   </bookViews>
@@ -156,7 +156,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="236">
   <si>
     <t>ASSESSMENT SUMMARY</t>
   </si>
@@ -870,7 +870,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -921,12 +921,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -1599,8 +1593,8 @@
   <dimension ref="A1:F99"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D88" sqref="D88"/>
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D76" sqref="D76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2748,6 +2742,9 @@
       <c r="C73" s="23" t="s">
         <v>73</v>
       </c>
+      <c r="D73" t="s">
+        <v>156</v>
+      </c>
       <c r="F73" t="s">
         <v>224</v>
       </c>
@@ -3133,7 +3130,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:F1" xr:uid="{42076D7F-BEF1-41ED-B129-2E241988AEAC}"/>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>

--- a/dev/data_quality/erms-template.xlsx
+++ b/dev/data_quality/erms-template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Rprojects\eamena-arches-dev\dev\data_quality\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2842F5BE-52CF-45A6-9101-E0EEABF8CD96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A55B9E5-B83E-4440-8A58-468E4FB3B684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1E0C3C69-C562-4061-B01F-1E26B463065A}"/>
   </bookViews>
@@ -419,9 +419,6 @@
     <t>Depositional Process</t>
   </si>
   <si>
-    <t>Bedrock Geology</t>
-  </si>
-  <si>
     <t>Fetch Type</t>
   </si>
   <si>
@@ -659,9 +656,6 @@
     <t>34cfea61-c2c0-11ea-9026-02e7594ce0a0</t>
   </si>
   <si>
-    <t>34cfea9e-c2c0-11ea-9026-02e7594ce0a0</t>
-  </si>
-  <si>
     <t>34cfea37-c2c0-11ea-9026-02e7594ce0a0</t>
   </si>
   <si>
@@ -864,6 +858,12 @@
   </si>
   <si>
     <t>Minimum Depth/Max Elevation</t>
+  </si>
+  <si>
+    <t>34cfea9d-c2c0-11ea-9026-02e7594ce0a0</t>
+  </si>
+  <si>
+    <t>Bedrock Geology Type</t>
   </si>
 </sst>
 </file>
@@ -1593,8 +1593,8 @@
   <dimension ref="A1:F99"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D76" sqref="D76"/>
+      <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C91" sqref="C91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1609,22 +1609,22 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="E1" s="32" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -1638,7 +1638,7 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -1652,10 +1652,10 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -1669,7 +1669,7 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -1683,7 +1683,7 @@
         <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -1694,10 +1694,10 @@
         <v>8</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -1711,10 +1711,10 @@
         <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -1725,10 +1725,10 @@
         <v>8</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D8" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -1742,7 +1742,7 @@
         <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -1756,10 +1756,10 @@
         <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -1773,10 +1773,10 @@
         <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -1790,10 +1790,10 @@
         <v>33</v>
       </c>
       <c r="D12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -1807,10 +1807,10 @@
         <v>34</v>
       </c>
       <c r="D13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -1824,10 +1824,10 @@
         <v>35</v>
       </c>
       <c r="D14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -1841,10 +1841,10 @@
         <v>36</v>
       </c>
       <c r="D15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -1855,13 +1855,13 @@
         <v>11</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D16" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -1875,10 +1875,10 @@
         <v>37</v>
       </c>
       <c r="D17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -1892,10 +1892,10 @@
         <v>38</v>
       </c>
       <c r="D18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -1909,10 +1909,10 @@
         <v>39</v>
       </c>
       <c r="D19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -1926,10 +1926,10 @@
         <v>40</v>
       </c>
       <c r="D20" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -1943,7 +1943,7 @@
         <v>41</v>
       </c>
       <c r="D21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -1954,10 +1954,10 @@
         <v>2</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D22" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -1971,10 +1971,10 @@
         <v>42</v>
       </c>
       <c r="D23" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -1985,10 +1985,10 @@
         <v>3</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D24" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -2002,10 +2002,10 @@
         <v>43</v>
       </c>
       <c r="D25" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E25" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -2019,7 +2019,7 @@
         <v>44</v>
       </c>
       <c r="D26" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -2033,10 +2033,10 @@
         <v>45</v>
       </c>
       <c r="D27" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -2050,10 +2050,10 @@
         <v>46</v>
       </c>
       <c r="D28" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E28" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -2067,7 +2067,7 @@
         <v>47</v>
       </c>
       <c r="D29" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -2081,7 +2081,7 @@
         <v>48</v>
       </c>
       <c r="D30" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -2092,10 +2092,10 @@
         <v>14</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D31" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -2106,10 +2106,10 @@
         <v>14</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D32" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -2120,13 +2120,13 @@
         <v>4</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D33" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E33" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -2140,10 +2140,10 @@
         <v>49</v>
       </c>
       <c r="D34" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E34" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -2157,7 +2157,7 @@
         <v>50</v>
       </c>
       <c r="D35" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -2171,10 +2171,10 @@
         <v>51</v>
       </c>
       <c r="D36" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E36" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -2185,13 +2185,13 @@
         <v>15</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D37" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E37" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
@@ -2202,13 +2202,13 @@
         <v>15</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D38" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E38" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
@@ -2222,7 +2222,7 @@
         <v>52</v>
       </c>
       <c r="D39" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
@@ -2233,10 +2233,10 @@
         <v>16</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D40" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
@@ -2247,10 +2247,10 @@
         <v>16</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D41" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
@@ -2264,7 +2264,7 @@
         <v>53</v>
       </c>
       <c r="D42" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
@@ -2278,7 +2278,7 @@
         <v>54</v>
       </c>
       <c r="D43" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
@@ -2292,7 +2292,7 @@
         <v>55</v>
       </c>
       <c r="D44" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
@@ -2306,7 +2306,7 @@
         <v>56</v>
       </c>
       <c r="D45" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
@@ -2320,7 +2320,7 @@
         <v>57</v>
       </c>
       <c r="D46" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
@@ -2331,10 +2331,10 @@
         <v>16</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D47" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
@@ -2342,16 +2342,16 @@
         <v>4</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C48" s="16" t="s">
         <v>58</v>
       </c>
       <c r="D48" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E48" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -2359,13 +2359,13 @@
         <v>4</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C49" s="16" t="s">
         <v>59</v>
       </c>
       <c r="D49" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -2373,16 +2373,16 @@
         <v>4</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C50" s="16" t="s">
         <v>60</v>
       </c>
       <c r="D50" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E50" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -2390,16 +2390,16 @@
         <v>4</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C51" s="16" t="s">
         <v>61</v>
       </c>
       <c r="D51" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E51" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -2407,16 +2407,16 @@
         <v>4</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C52" s="18" t="s">
         <v>62</v>
       </c>
       <c r="D52" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E52" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -2424,13 +2424,13 @@
         <v>4</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D53" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -2438,16 +2438,16 @@
         <v>4</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D54" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E54" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -2455,16 +2455,16 @@
         <v>4</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C55" s="16" t="s">
         <v>63</v>
       </c>
       <c r="D55" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E55" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -2472,16 +2472,16 @@
         <v>4</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D56" t="s">
+        <v>206</v>
+      </c>
+      <c r="F56" t="s">
         <v>208</v>
-      </c>
-      <c r="F56" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -2489,16 +2489,16 @@
         <v>4</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D57" t="s">
+        <v>206</v>
+      </c>
+      <c r="F57" t="s">
         <v>208</v>
-      </c>
-      <c r="F57" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -2512,7 +2512,7 @@
         <v>64</v>
       </c>
       <c r="D58" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -2526,7 +2526,7 @@
         <v>65</v>
       </c>
       <c r="D59" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -2540,7 +2540,7 @@
         <v>66</v>
       </c>
       <c r="D60" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -2554,7 +2554,7 @@
         <v>67</v>
       </c>
       <c r="D61" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -2568,7 +2568,7 @@
         <v>68</v>
       </c>
       <c r="D62" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -2582,7 +2582,7 @@
         <v>69</v>
       </c>
       <c r="D63" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -2593,10 +2593,10 @@
         <v>18</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D64" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -2607,13 +2607,13 @@
         <v>4</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D65" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E65" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
@@ -2624,13 +2624,13 @@
         <v>5</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D66" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E66" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -2644,10 +2644,10 @@
         <v>70</v>
       </c>
       <c r="D67" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E67" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -2661,10 +2661,10 @@
         <v>71</v>
       </c>
       <c r="D68" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E68" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
@@ -2675,13 +2675,13 @@
         <v>19</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D69" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E69" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -2692,13 +2692,13 @@
         <v>19</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D70" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E70" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
@@ -2712,7 +2712,7 @@
         <v>72</v>
       </c>
       <c r="D71" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
@@ -2723,13 +2723,13 @@
         <v>19</v>
       </c>
       <c r="C72" s="23" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D72" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F72" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
@@ -2743,10 +2743,10 @@
         <v>73</v>
       </c>
       <c r="D73" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F73" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
@@ -2757,10 +2757,10 @@
         <v>19</v>
       </c>
       <c r="C74" s="23" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D74" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
@@ -2771,13 +2771,13 @@
         <v>19</v>
       </c>
       <c r="C75" s="31" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D75" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E75" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F75" s="23" t="s">
         <v>74</v>
@@ -2794,10 +2794,10 @@
         <v>75</v>
       </c>
       <c r="D76" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E76" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
@@ -2811,10 +2811,10 @@
         <v>76</v>
       </c>
       <c r="D77" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E77" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
@@ -2828,10 +2828,10 @@
         <v>77</v>
       </c>
       <c r="D78" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E78" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
@@ -2842,13 +2842,13 @@
         <v>20</v>
       </c>
       <c r="C79" s="31" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D79" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E79" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F79" s="8" t="s">
         <v>78</v>
@@ -2862,10 +2862,10 @@
         <v>20</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D80" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
@@ -2876,10 +2876,10 @@
         <v>20</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D81" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
@@ -2915,7 +2915,7 @@
         <v>81</v>
       </c>
       <c r="D84" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
@@ -2926,16 +2926,16 @@
         <v>5</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D85" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E85" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F85" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
@@ -2949,7 +2949,7 @@
         <v>82</v>
       </c>
       <c r="D86" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
@@ -2974,7 +2974,7 @@
         <v>84</v>
       </c>
       <c r="D88" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
@@ -2988,7 +2988,7 @@
         <v>85</v>
       </c>
       <c r="D89" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
@@ -3002,7 +3002,7 @@
         <v>86</v>
       </c>
       <c r="D90" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
@@ -3013,10 +3013,10 @@
         <v>6</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>87</v>
+        <v>235</v>
       </c>
       <c r="D91" t="s">
-        <v>167</v>
+        <v>234</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
@@ -3027,10 +3027,10 @@
         <v>24</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D92" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
@@ -3041,10 +3041,10 @@
         <v>24</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D93" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
@@ -3055,13 +3055,13 @@
         <v>24</v>
       </c>
       <c r="C94" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="D94" t="s">
+        <v>228</v>
+      </c>
+      <c r="F94" t="s">
         <v>229</v>
-      </c>
-      <c r="D94" t="s">
-        <v>230</v>
-      </c>
-      <c r="F94" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
@@ -3069,13 +3069,13 @@
         <v>6</v>
       </c>
       <c r="B95" s="30" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D95" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
@@ -3083,13 +3083,13 @@
         <v>6</v>
       </c>
       <c r="B96" s="30" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D96" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
@@ -3097,10 +3097,10 @@
         <v>6</v>
       </c>
       <c r="B97" s="30" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
@@ -3108,10 +3108,10 @@
         <v>6</v>
       </c>
       <c r="B98" s="30" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
@@ -3122,10 +3122,10 @@
         <v>7</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D99" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>

--- a/dev/data_quality/erms-template.xlsx
+++ b/dev/data_quality/erms-template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Rprojects\eamena-arches-dev\dev\data_quality\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A55B9E5-B83E-4440-8A58-468E4FB3B684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7CB5B47-7819-431B-B598-A050871551C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1E0C3C69-C562-4061-B01F-1E26B463065A}"/>
   </bookViews>
@@ -212,9 +212,6 @@
     <t>MATERIAL</t>
   </si>
   <si>
-    <t>Measurements</t>
-  </si>
-  <si>
     <t>DISTURBANCES</t>
   </si>
   <si>
@@ -864,6 +861,9 @@
   </si>
   <si>
     <t>Bedrock Geology Type</t>
+  </si>
+  <si>
+    <t>MEASUREMENTS</t>
   </si>
 </sst>
 </file>
@@ -1593,8 +1593,8 @@
   <dimension ref="A1:F99"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C91" sqref="C91"/>
+      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E66" sqref="E66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1609,22 +1609,22 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="E1" s="32" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -1635,10 +1635,10 @@
         <v>8</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -1649,13 +1649,13 @@
         <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -1666,10 +1666,10 @@
         <v>8</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -1680,10 +1680,10 @@
         <v>8</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -1694,10 +1694,10 @@
         <v>8</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="D6" t="s">
         <v>176</v>
-      </c>
-      <c r="D6" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -1708,13 +1708,13 @@
         <v>8</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -1725,10 +1725,10 @@
         <v>8</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="D8" t="s">
         <v>178</v>
-      </c>
-      <c r="D8" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -1739,10 +1739,10 @@
         <v>8</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -1753,13 +1753,13 @@
         <v>9</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -1770,13 +1770,13 @@
         <v>9</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -1787,13 +1787,13 @@
         <v>1</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -1804,13 +1804,13 @@
         <v>10</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -1821,13 +1821,13 @@
         <v>10</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -1838,13 +1838,13 @@
         <v>11</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -1855,13 +1855,13 @@
         <v>11</v>
       </c>
       <c r="C16" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="D16" t="s">
         <v>174</v>
       </c>
-      <c r="D16" t="s">
-        <v>175</v>
-      </c>
       <c r="E16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -1872,13 +1872,13 @@
         <v>12</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -1889,13 +1889,13 @@
         <v>12</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -1906,13 +1906,13 @@
         <v>12</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -1923,13 +1923,13 @@
         <v>2</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -1940,10 +1940,10 @@
         <v>2</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -1954,10 +1954,10 @@
         <v>2</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D22" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -1968,13 +1968,13 @@
         <v>2</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D23" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -1985,10 +1985,10 @@
         <v>3</v>
       </c>
       <c r="C24" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="D24" t="s">
         <v>183</v>
-      </c>
-      <c r="D24" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -1999,13 +1999,13 @@
         <v>3</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D25" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E25" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -2016,10 +2016,10 @@
         <v>3</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D26" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -2030,13 +2030,13 @@
         <v>3</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E27" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -2047,13 +2047,13 @@
         <v>3</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D28" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E28" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -2064,10 +2064,10 @@
         <v>13</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D29" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -2078,10 +2078,10 @@
         <v>13</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D30" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -2092,10 +2092,10 @@
         <v>14</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D31" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -2106,10 +2106,10 @@
         <v>14</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D32" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -2120,13 +2120,13 @@
         <v>4</v>
       </c>
       <c r="C33" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="D33" t="s">
         <v>189</v>
       </c>
-      <c r="D33" t="s">
-        <v>190</v>
-      </c>
       <c r="E33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -2137,13 +2137,13 @@
         <v>4</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D34" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E34" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -2154,10 +2154,10 @@
         <v>15</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D35" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -2168,13 +2168,13 @@
         <v>15</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E36" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -2185,13 +2185,13 @@
         <v>15</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D37" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E37" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
@@ -2202,13 +2202,13 @@
         <v>15</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D38" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E38" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
@@ -2219,10 +2219,10 @@
         <v>15</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D39" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
@@ -2233,10 +2233,10 @@
         <v>16</v>
       </c>
       <c r="C40" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="D40" t="s">
         <v>195</v>
-      </c>
-      <c r="D40" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
@@ -2247,10 +2247,10 @@
         <v>16</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D41" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
@@ -2261,10 +2261,10 @@
         <v>16</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D42" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
@@ -2275,10 +2275,10 @@
         <v>16</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D43" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
@@ -2289,10 +2289,10 @@
         <v>16</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D44" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
@@ -2303,10 +2303,10 @@
         <v>16</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D45" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
@@ -2317,10 +2317,10 @@
         <v>16</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D46" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
@@ -2331,10 +2331,10 @@
         <v>16</v>
       </c>
       <c r="C47" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="D47" t="s">
         <v>199</v>
-      </c>
-      <c r="D47" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
@@ -2342,16 +2342,16 @@
         <v>4</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D48" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E48" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -2359,13 +2359,13 @@
         <v>4</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D49" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -2373,16 +2373,16 @@
         <v>4</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D50" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E50" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -2390,16 +2390,16 @@
         <v>4</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D51" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E51" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -2407,16 +2407,16 @@
         <v>4</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C52" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D52" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E52" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -2424,13 +2424,13 @@
         <v>4</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D53" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -2438,16 +2438,16 @@
         <v>4</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C54" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="D54" t="s">
         <v>203</v>
       </c>
-      <c r="D54" t="s">
-        <v>204</v>
-      </c>
       <c r="E54" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -2455,16 +2455,16 @@
         <v>4</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D55" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E55" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -2472,16 +2472,16 @@
         <v>4</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C56" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="D56" t="s">
         <v>205</v>
       </c>
-      <c r="D56" t="s">
-        <v>206</v>
-      </c>
       <c r="F56" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -2489,16 +2489,16 @@
         <v>4</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C57" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="D57" t="s">
+        <v>205</v>
+      </c>
+      <c r="F57" t="s">
         <v>207</v>
-      </c>
-      <c r="D57" t="s">
-        <v>206</v>
-      </c>
-      <c r="F57" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -2509,10 +2509,10 @@
         <v>17</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D58" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -2523,10 +2523,10 @@
         <v>17</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D59" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -2537,10 +2537,10 @@
         <v>17</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D60" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -2548,13 +2548,13 @@
         <v>4</v>
       </c>
       <c r="B61" s="20" t="s">
-        <v>18</v>
+        <v>235</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D61" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -2562,13 +2562,13 @@
         <v>4</v>
       </c>
       <c r="B62" s="20" t="s">
-        <v>18</v>
+        <v>235</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D62" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -2576,13 +2576,13 @@
         <v>4</v>
       </c>
       <c r="B63" s="20" t="s">
-        <v>18</v>
+        <v>235</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D63" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -2590,13 +2590,13 @@
         <v>4</v>
       </c>
       <c r="B64" s="20" t="s">
-        <v>18</v>
+        <v>235</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D64" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -2607,13 +2607,13 @@
         <v>4</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D65" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E65" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
@@ -2624,13 +2624,13 @@
         <v>5</v>
       </c>
       <c r="C66" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="D66" t="s">
         <v>213</v>
       </c>
-      <c r="D66" t="s">
-        <v>214</v>
-      </c>
       <c r="E66" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -2641,13 +2641,13 @@
         <v>5</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D67" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E67" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -2655,16 +2655,16 @@
         <v>5</v>
       </c>
       <c r="B68" s="22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D68" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E68" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
@@ -2672,16 +2672,16 @@
         <v>5</v>
       </c>
       <c r="B69" s="22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D69" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E69" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -2689,16 +2689,16 @@
         <v>5</v>
       </c>
       <c r="B70" s="22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C70" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="D70" t="s">
         <v>217</v>
       </c>
-      <c r="D70" t="s">
-        <v>218</v>
-      </c>
       <c r="E70" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
@@ -2706,13 +2706,13 @@
         <v>5</v>
       </c>
       <c r="B71" s="22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C71" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D71" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
@@ -2720,16 +2720,16 @@
         <v>5</v>
       </c>
       <c r="B72" s="22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C72" s="23" t="s">
+        <v>218</v>
+      </c>
+      <c r="D72" t="s">
+        <v>153</v>
+      </c>
+      <c r="F72" t="s">
         <v>219</v>
-      </c>
-      <c r="D72" t="s">
-        <v>154</v>
-      </c>
-      <c r="F72" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
@@ -2737,16 +2737,16 @@
         <v>5</v>
       </c>
       <c r="B73" s="22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C73" s="23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D73" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F73" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
@@ -2754,13 +2754,13 @@
         <v>5</v>
       </c>
       <c r="B74" s="22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C74" s="23" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D74" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
@@ -2768,19 +2768,19 @@
         <v>5</v>
       </c>
       <c r="B75" s="22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C75" s="31" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D75" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E75" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F75" s="23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
@@ -2788,16 +2788,16 @@
         <v>5</v>
       </c>
       <c r="B76" s="22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D76" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E76" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
@@ -2805,16 +2805,16 @@
         <v>5</v>
       </c>
       <c r="B77" s="22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D77" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E77" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
@@ -2822,16 +2822,16 @@
         <v>5</v>
       </c>
       <c r="B78" s="24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D78" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E78" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
@@ -2839,19 +2839,19 @@
         <v>5</v>
       </c>
       <c r="B79" s="24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C79" s="31" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D79" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E79" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F79" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
@@ -2859,13 +2859,13 @@
         <v>5</v>
       </c>
       <c r="B80" s="24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D80" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
@@ -2873,13 +2873,13 @@
         <v>5</v>
       </c>
       <c r="B81" s="24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C81" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="D81" t="s">
         <v>224</v>
-      </c>
-      <c r="D81" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
@@ -2887,10 +2887,10 @@
         <v>5</v>
       </c>
       <c r="B82" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
@@ -2898,10 +2898,10 @@
         <v>5</v>
       </c>
       <c r="B83" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
@@ -2909,13 +2909,13 @@
         <v>5</v>
       </c>
       <c r="B84" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D84" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
@@ -2926,16 +2926,16 @@
         <v>5</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D85" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E85" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F85" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
@@ -2946,10 +2946,10 @@
         <v>6</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D86" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
@@ -2957,10 +2957,10 @@
         <v>6</v>
       </c>
       <c r="B87" s="28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
@@ -2968,13 +2968,13 @@
         <v>6</v>
       </c>
       <c r="B88" s="28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D88" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
@@ -2982,13 +2982,13 @@
         <v>6</v>
       </c>
       <c r="B89" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D89" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
@@ -2996,13 +2996,13 @@
         <v>6</v>
       </c>
       <c r="B90" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D90" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
@@ -3013,10 +3013,10 @@
         <v>6</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D91" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
@@ -3024,13 +3024,13 @@
         <v>6</v>
       </c>
       <c r="B92" s="29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D92" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
@@ -3038,13 +3038,13 @@
         <v>6</v>
       </c>
       <c r="B93" s="29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D93" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
@@ -3052,16 +3052,16 @@
         <v>6</v>
       </c>
       <c r="B94" s="29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C94" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="D94" t="s">
         <v>227</v>
       </c>
-      <c r="D94" t="s">
+      <c r="F94" t="s">
         <v>228</v>
-      </c>
-      <c r="F94" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
@@ -3069,13 +3069,13 @@
         <v>6</v>
       </c>
       <c r="B95" s="30" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D95" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
@@ -3083,13 +3083,13 @@
         <v>6</v>
       </c>
       <c r="B96" s="30" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D96" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
@@ -3097,10 +3097,10 @@
         <v>6</v>
       </c>
       <c r="B97" s="30" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
@@ -3108,10 +3108,10 @@
         <v>6</v>
       </c>
       <c r="B98" s="30" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
@@ -3122,10 +3122,10 @@
         <v>7</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D99" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
